--- a/tableau des écarts.xlsx
+++ b/tableau des écarts.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CESI\A4\Projet Dev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Victor\Desktop\LE BON PROJET TOUT NEUF\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B78CF00-4DE0-4CEB-B364-3C5DC8374F63}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41128822-D494-4115-ADB3-13BA7515A985}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="60">
   <si>
     <t>Détails</t>
   </si>
@@ -150,9 +150,6 @@
     <t>3 couches (1 composant physique)</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>Pas présent</t>
   </si>
   <si>
@@ -174,12 +171,6 @@
     <t xml:space="preserve">Pas Présent </t>
   </si>
   <si>
-    <t>Analyser les messages grace a un logiciel type WireShark ou possibilité de rajouter une méthode qui crypte et une autre qui décrypte les messages sérialisé.</t>
-  </si>
-  <si>
-    <t>??????????</t>
-  </si>
-  <si>
     <t>car chaque partie du logiciel est capable de foncionner seule / sur une autre machine</t>
   </si>
   <si>
@@ -189,34 +180,31 @@
     <t>voir diagramme des classes</t>
   </si>
   <si>
-    <t>????????</t>
-  </si>
-  <si>
     <t>Version plus récente</t>
   </si>
   <si>
     <t>utilisateur windows + utilisateur spécial SQL</t>
   </si>
   <si>
-    <t>Modifier les paramètre de la nase ou créer un evenement de sauvegarde</t>
-  </si>
-  <si>
     <t>Mise en place faisable d'autant plus que WCF fourni un protocole réseaux basé sur net.TCP</t>
   </si>
   <si>
     <t>Mise en place faisable via une librairie ou paramétrage</t>
   </si>
   <si>
-    <t>action(message) une seul méthode pour le point d'entré</t>
-  </si>
-  <si>
-    <t>nbr d'utilisation/temps d'utilisatio des méthodes, microsoft studio compte rendu de temps par fonction</t>
-  </si>
-  <si>
     <t>Cahier des charges</t>
   </si>
   <si>
-    <t xml:space="preserve">? Un seul endpoint </t>
+    <t>Modifier les paramètre de la sauvegarde de la base pour passer les paramètre en mode sauvegarde complète et spécifier la localisation du fichier de stockage</t>
+  </si>
+  <si>
+    <t>Analyser les messages grace a un logiciel type WireShark ou possibilité de rajouter une méthode qui crypte ou décrypte les messages sérialisé.</t>
+  </si>
+  <si>
+    <t>voir class Program.cs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">beaucoup de requêtes en même temps </t>
   </si>
 </sst>
 </file>
@@ -232,7 +220,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -247,12 +235,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -260,12 +242,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,7 +489,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -543,31 +519,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -593,13 +565,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>17369</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>65512</xdr:rowOff>
+      <xdr:rowOff>33617</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>3730653</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>295577</xdr:rowOff>
+      <xdr:rowOff>329194</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -627,8 +599,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="10797428" y="7248483"/>
-          <a:ext cx="3713284" cy="588653"/>
+          <a:off x="10797428" y="7216588"/>
+          <a:ext cx="3713284" cy="654165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -913,10 +885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:G38"/>
+  <dimension ref="B1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+      <selection activeCell="M37" sqref="M37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -929,14 +901,14 @@
   <sheetData>
     <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C2" s="21"/>
-      <c r="D2" s="22" t="s">
+      <c r="B2" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="32"/>
+      <c r="D2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E2" s="23" t="s">
+      <c r="E2" s="20" t="s">
         <v>0</v>
       </c>
     </row>
@@ -985,12 +957,12 @@
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="23"/>
     </row>
     <row r="8" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="10"/>
@@ -1033,11 +1005,11 @@
       <c r="C11" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="27" t="s">
-        <v>42</v>
+      <c r="D11" s="24" t="s">
+        <v>41</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1045,20 +1017,20 @@
       <c r="C12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>47</v>
-      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="26"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="23"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="10"/>
@@ -1069,7 +1041,7 @@
         <v>39</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="2:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1080,7 +1052,7 @@
       <c r="D15" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E15" s="34" t="s">
+      <c r="E15" s="30" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1092,23 +1064,23 @@
       <c r="D16" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E16" s="29" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E16" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="10"/>
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="28" t="s">
-        <v>48</v>
+      <c r="D17" s="25" t="s">
+        <v>47</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="10"/>
       <c r="C18" s="1" t="s">
         <v>14</v>
@@ -1117,25 +1089,22 @@
         <v>39</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="10"/>
       <c r="C19" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="G19" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D19" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19" s="30" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="10"/>
       <c r="C20" s="3" t="s">
         <v>16</v>
@@ -1144,22 +1113,22 @@
         <v>39</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="10"/>
       <c r="C21" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D21" s="30" t="s">
-        <v>42</v>
+      <c r="D21" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="10"/>
       <c r="C22" s="3" t="s">
         <v>18</v>
@@ -1167,14 +1136,11 @@
       <c r="D22" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E22" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="G22" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23" s="10"/>
       <c r="C23" s="1" t="s">
         <v>19</v>
@@ -1183,10 +1149,10 @@
         <v>39</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="10"/>
       <c r="C24" s="1" t="s">
         <v>20</v>
@@ -1195,10 +1161,10 @@
         <v>39</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25" s="10"/>
       <c r="C25" s="1" t="s">
         <v>21</v>
@@ -1206,11 +1172,11 @@
       <c r="D25" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="32" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E25" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B26" s="4"/>
       <c r="C26" s="2" t="s">
         <v>22</v>
@@ -1219,18 +1185,18 @@
         <v>39</v>
       </c>
       <c r="E26" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="25"/>
-      <c r="D27" s="25"/>
-      <c r="E27" s="26"/>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C27" s="22"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="10"/>
       <c r="C28" s="1" t="s">
         <v>24</v>
@@ -1239,10 +1205,10 @@
         <v>39</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B29" s="10"/>
       <c r="C29" s="1" t="s">
         <v>25</v>
@@ -1251,10 +1217,10 @@
         <v>39</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B30" s="10"/>
       <c r="C30" s="1" t="s">
         <v>26</v>
@@ -1262,9 +1228,9 @@
       <c r="D30" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="32"/>
-    </row>
-    <row r="31" spans="2:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E30" s="28"/>
+    </row>
+    <row r="31" spans="2:5" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B31" s="10"/>
       <c r="C31" s="1" t="s">
         <v>27</v>
@@ -1274,36 +1240,36 @@
       </c>
       <c r="E31" s="12"/>
     </row>
-    <row r="32" spans="2:7" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B32" s="4"/>
       <c r="C32" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D32" s="31" t="s">
-        <v>42</v>
+      <c r="D32" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B33" s="24" t="s">
+      <c r="B33" s="21" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="25"/>
-      <c r="D33" s="25"/>
-      <c r="E33" s="26"/>
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="23"/>
     </row>
     <row r="34" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="10"/>
       <c r="C34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D34" s="30" t="s">
-        <v>42</v>
+      <c r="D34" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="E34" s="14" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -1311,11 +1277,11 @@
       <c r="C35" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="31" t="s">
-        <v>42</v>
+      <c r="D35" s="27" t="s">
+        <v>41</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="2:5" s="8" customFormat="1" x14ac:dyDescent="0.25">
